--- a/predictor/stadiums.xlsx
+++ b/predictor/stadiums.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\soccer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0E7D5A-7AA0-4C35-9EB7-787E87729389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11E682-297A-4C2F-97A6-068D3F1053EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="2921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="2986">
   <si>
     <t>1. FC Heidenheim 1846</t>
   </si>
@@ -8793,6 +8793,201 @@
   </si>
   <si>
     <t>Macarthur FC</t>
+  </si>
+  <si>
+    <t>Avispa Fukuoka</t>
+  </si>
+  <si>
+    <t>Tokushima Vortis</t>
+  </si>
+  <si>
+    <t>22563</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Racing Louisville FC</t>
+  </si>
+  <si>
+    <t>Austin FC</t>
+  </si>
+  <si>
+    <t>Degerfors IF</t>
+  </si>
+  <si>
+    <t>Oakland Roots</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Detroit City FC</t>
+  </si>
+  <si>
+    <t>Monterey Bay</t>
+  </si>
+  <si>
+    <t>Charlotte FC</t>
+  </si>
+  <si>
+    <t>San Diego Wave FC</t>
+  </si>
+  <si>
+    <t>FC Volendam</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>Winterthur</t>
+  </si>
+  <si>
+    <t>IFK Varnamo</t>
+  </si>
+  <si>
+    <t>FK Nizhny Novgorod</t>
+  </si>
+  <si>
+    <t>Torpedo Moskow</t>
+  </si>
+  <si>
+    <t>Austria Lustenau</t>
+  </si>
+  <si>
+    <t>TS Galaxy</t>
+  </si>
+  <si>
+    <t>Villarreal B</t>
+  </si>
+  <si>
+    <t>FK Jerv</t>
+  </si>
+  <si>
+    <t>Umraniyespor</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>UD Ibiza</t>
+  </si>
+  <si>
+    <t>Hamarkamaratene</t>
+  </si>
+  <si>
+    <t>Modena</t>
+  </si>
+  <si>
+    <t>Sudtirol</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Angel City FC</t>
+  </si>
+  <si>
+    <t>FC Andorra</t>
+  </si>
+  <si>
+    <t>FC Arouca</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Sutton United</t>
+  </si>
+  <si>
+    <t>Stockport County</t>
+  </si>
+  <si>
+    <t>Sarmiento</t>
+  </si>
+  <si>
+    <t>Platense</t>
+  </si>
+  <si>
+    <t>Royal AM</t>
+  </si>
+  <si>
+    <t>Fakel Voronezh</t>
+  </si>
+  <si>
+    <t>Moroka Swallows</t>
+  </si>
+  <si>
+    <t>RFC Seraing</t>
+  </si>
+  <si>
+    <t>Sekhukhune United</t>
+  </si>
+  <si>
+    <t>SK Austria Klagenfurt</t>
+  </si>
+  <si>
+    <t>Giresunspor</t>
+  </si>
+  <si>
+    <t>Cambuur Leeuwarden</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Annecy</t>
+  </si>
+  <si>
+    <t>Richards Bay</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>Hansa Rostock</t>
+  </si>
+  <si>
+    <t>Tshakhuma Tsha Madzivhandila</t>
+  </si>
+  <si>
+    <t>Casa Pia</t>
+  </si>
+  <si>
+    <t>Ionikos FC</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>KVC Westerlo</t>
+  </si>
+  <si>
+    <t>Istanbulspor</t>
+  </si>
+  <si>
+    <t>Adana Demirspor</t>
+  </si>
+  <si>
+    <t>Kyoto Purple Sanga</t>
+  </si>
+  <si>
+    <t>Union Saint Gilloise</t>
+  </si>
+  <si>
+    <t>Leicester City WFC</t>
+  </si>
+  <si>
+    <t>Liverpool Women</t>
   </si>
 </sst>
 </file>
@@ -9144,21 +9339,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F800"/>
+  <dimension ref="A1:F864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
-      <selection activeCell="F793" sqref="F793"/>
+    <sheetView tabSelected="1" topLeftCell="A843" workbookViewId="0">
+      <selection activeCell="C865" sqref="C865"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9172,7 +9367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9186,7 +9381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9200,7 +9395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -9214,7 +9409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -9228,7 +9423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -9242,7 +9437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -9256,7 +9451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -9270,7 +9465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -9284,7 +9479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -9298,7 +9493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -9312,7 +9507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -9326,7 +9521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -9340,7 +9535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -9354,7 +9549,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -9368,7 +9563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -9382,7 +9577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -9396,7 +9591,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -9410,7 +9605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -9424,7 +9619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -9438,7 +9633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -9452,7 +9647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -9466,7 +9661,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -9480,7 +9675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -9494,7 +9689,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -9508,7 +9703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -9522,7 +9717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -9536,7 +9731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -9550,7 +9745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -9564,7 +9759,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -9578,7 +9773,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -9592,7 +9787,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -9606,7 +9801,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -9620,7 +9815,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -9634,7 +9829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -9648,7 +9843,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -9662,7 +9857,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -9676,7 +9871,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -9690,7 +9885,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -9704,7 +9899,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -9718,7 +9913,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -9732,7 +9927,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -9746,7 +9941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -9760,7 +9955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -9774,7 +9969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -9788,7 +9983,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -9802,7 +9997,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -9816,7 +10011,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -9830,7 +10025,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -9844,7 +10039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -9858,7 +10053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -9872,7 +10067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -9886,7 +10081,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -9900,7 +10095,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -9914,7 +10109,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -9928,7 +10123,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -9942,7 +10137,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -9956,7 +10151,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>164</v>
       </c>
@@ -9970,7 +10165,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -9984,7 +10179,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -9998,7 +10193,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -10012,7 +10207,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>172</v>
       </c>
@@ -10026,7 +10221,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -10040,7 +10235,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -10054,7 +10249,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>179</v>
       </c>
@@ -10068,7 +10263,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -10082,7 +10277,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>185</v>
       </c>
@@ -10096,7 +10291,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -10110,7 +10305,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -10124,7 +10319,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -10138,7 +10333,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -10152,7 +10347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -10166,7 +10361,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>206</v>
       </c>
@@ -10180,7 +10375,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>209</v>
       </c>
@@ -10194,7 +10389,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -10208,7 +10403,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>215</v>
       </c>
@@ -10222,7 +10417,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -10236,7 +10431,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>219</v>
       </c>
@@ -10250,7 +10445,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -10264,7 +10459,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>197</v>
       </c>
@@ -10278,7 +10473,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>225</v>
       </c>
@@ -10292,7 +10487,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>228</v>
       </c>
@@ -10306,7 +10501,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>231</v>
       </c>
@@ -10320,7 +10515,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -10334,7 +10529,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>235</v>
       </c>
@@ -10348,7 +10543,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>236</v>
       </c>
@@ -10362,7 +10557,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>239</v>
       </c>
@@ -10376,7 +10571,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>242</v>
       </c>
@@ -10390,7 +10585,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>245</v>
       </c>
@@ -10404,7 +10599,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>246</v>
       </c>
@@ -10418,7 +10613,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>247</v>
       </c>
@@ -10432,7 +10627,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>250</v>
       </c>
@@ -10446,7 +10641,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -10460,7 +10655,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>200</v>
       </c>
@@ -10474,7 +10669,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>256</v>
       </c>
@@ -10488,7 +10683,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>257</v>
       </c>
@@ -10502,7 +10697,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>258</v>
       </c>
@@ -10516,7 +10711,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>261</v>
       </c>
@@ -10530,7 +10725,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>262</v>
       </c>
@@ -10544,7 +10739,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>265</v>
       </c>
@@ -10558,7 +10753,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>268</v>
       </c>
@@ -10572,7 +10767,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>269</v>
       </c>
@@ -10586,7 +10781,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>272</v>
       </c>
@@ -10600,7 +10795,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>273</v>
       </c>
@@ -10614,7 +10809,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>276</v>
       </c>
@@ -10628,7 +10823,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>279</v>
       </c>
@@ -10642,7 +10837,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>280</v>
       </c>
@@ -10656,7 +10851,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>283</v>
       </c>
@@ -10670,7 +10865,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>284</v>
       </c>
@@ -10684,7 +10879,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>285</v>
       </c>
@@ -10698,7 +10893,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>288</v>
       </c>
@@ -10712,7 +10907,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>291</v>
       </c>
@@ -10726,7 +10921,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>292</v>
       </c>
@@ -10740,7 +10935,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>295</v>
       </c>
@@ -10754,7 +10949,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>298</v>
       </c>
@@ -10768,7 +10963,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>301</v>
       </c>
@@ -10782,7 +10977,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>304</v>
       </c>
@@ -10796,7 +10991,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>307</v>
       </c>
@@ -10810,7 +11005,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>310</v>
       </c>
@@ -10824,7 +11019,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>313</v>
       </c>
@@ -10838,7 +11033,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>314</v>
       </c>
@@ -10852,7 +11047,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>317</v>
       </c>
@@ -10866,7 +11061,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>320</v>
       </c>
@@ -10880,7 +11075,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>321</v>
       </c>
@@ -10894,7 +11089,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>324</v>
       </c>
@@ -10908,7 +11103,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>327</v>
       </c>
@@ -10922,7 +11117,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>330</v>
       </c>
@@ -10936,7 +11131,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>333</v>
       </c>
@@ -10950,7 +11145,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>345</v>
       </c>
@@ -10964,7 +11159,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>348</v>
       </c>
@@ -10978,7 +11173,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>351</v>
       </c>
@@ -10992,7 +11187,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>354</v>
       </c>
@@ -11006,7 +11201,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>355</v>
       </c>
@@ -11020,7 +11215,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>358</v>
       </c>
@@ -11034,7 +11229,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>361</v>
       </c>
@@ -11048,7 +11243,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>364</v>
       </c>
@@ -11062,7 +11257,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>367</v>
       </c>
@@ -11076,7 +11271,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>370</v>
       </c>
@@ -11090,7 +11285,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>371</v>
       </c>
@@ -11104,7 +11299,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>374</v>
       </c>
@@ -11118,7 +11313,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>377</v>
       </c>
@@ -11132,7 +11327,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>380</v>
       </c>
@@ -11146,7 +11341,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>381</v>
       </c>
@@ -11160,7 +11355,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>384</v>
       </c>
@@ -11174,7 +11369,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>387</v>
       </c>
@@ -11188,7 +11383,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>336</v>
       </c>
@@ -11202,7 +11397,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>388</v>
       </c>
@@ -11216,7 +11411,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>391</v>
       </c>
@@ -11230,7 +11425,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>392</v>
       </c>
@@ -11244,7 +11439,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>393</v>
       </c>
@@ -11258,7 +11453,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>396</v>
       </c>
@@ -11272,7 +11467,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>399</v>
       </c>
@@ -11286,7 +11481,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>402</v>
       </c>
@@ -11300,7 +11495,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>405</v>
       </c>
@@ -11314,7 +11509,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>408</v>
       </c>
@@ -11328,7 +11523,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>411</v>
       </c>
@@ -11342,7 +11537,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>414</v>
       </c>
@@ -11356,7 +11551,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>417</v>
       </c>
@@ -11370,7 +11565,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>418</v>
       </c>
@@ -11384,7 +11579,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>421</v>
       </c>
@@ -11398,7 +11593,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>422</v>
       </c>
@@ -11412,7 +11607,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>425</v>
       </c>
@@ -11426,7 +11621,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>428</v>
       </c>
@@ -11440,7 +11635,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>431</v>
       </c>
@@ -11454,7 +11649,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>434</v>
       </c>
@@ -11468,7 +11663,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>437</v>
       </c>
@@ -11482,7 +11677,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>438</v>
       </c>
@@ -11496,7 +11691,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>439</v>
       </c>
@@ -11510,7 +11705,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>442</v>
       </c>
@@ -11524,7 +11719,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>445</v>
       </c>
@@ -11538,7 +11733,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>448</v>
       </c>
@@ -11552,7 +11747,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>451</v>
       </c>
@@ -11566,7 +11761,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>452</v>
       </c>
@@ -11580,7 +11775,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>453</v>
       </c>
@@ -11594,7 +11789,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>456</v>
       </c>
@@ -11608,7 +11803,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>459</v>
       </c>
@@ -11622,7 +11817,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>462</v>
       </c>
@@ -11636,7 +11831,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>465</v>
       </c>
@@ -11650,7 +11845,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>466</v>
       </c>
@@ -11664,7 +11859,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>469</v>
       </c>
@@ -11678,7 +11873,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>472</v>
       </c>
@@ -11692,7 +11887,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>475</v>
       </c>
@@ -11706,7 +11901,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>478</v>
       </c>
@@ -11720,7 +11915,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>479</v>
       </c>
@@ -11734,7 +11929,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>482</v>
       </c>
@@ -11748,7 +11943,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>339</v>
       </c>
@@ -11762,7 +11957,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>342</v>
       </c>
@@ -11776,7 +11971,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>485</v>
       </c>
@@ -11790,7 +11985,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>489</v>
       </c>
@@ -11804,7 +11999,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>492</v>
       </c>
@@ -11818,7 +12013,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>488</v>
       </c>
@@ -11832,7 +12027,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>495</v>
       </c>
@@ -11846,7 +12041,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>498</v>
       </c>
@@ -11860,7 +12055,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>501</v>
       </c>
@@ -11874,7 +12069,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>504</v>
       </c>
@@ -11888,7 +12083,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>507</v>
       </c>
@@ -11902,7 +12097,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>510</v>
       </c>
@@ -11916,7 +12111,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>513</v>
       </c>
@@ -11930,7 +12125,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>516</v>
       </c>
@@ -11944,7 +12139,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>518</v>
       </c>
@@ -11958,7 +12153,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>521</v>
       </c>
@@ -11972,7 +12167,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>524</v>
       </c>
@@ -11986,7 +12181,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>527</v>
       </c>
@@ -12000,7 +12195,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>530</v>
       </c>
@@ -12014,7 +12209,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>531</v>
       </c>
@@ -12028,7 +12223,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>534</v>
       </c>
@@ -12042,7 +12237,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>537</v>
       </c>
@@ -12056,7 +12251,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>540</v>
       </c>
@@ -12070,7 +12265,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>543</v>
       </c>
@@ -12084,7 +12279,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>546</v>
       </c>
@@ -12098,7 +12293,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>549</v>
       </c>
@@ -12112,7 +12307,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>552</v>
       </c>
@@ -12126,7 +12321,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>555</v>
       </c>
@@ -12140,7 +12335,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>558</v>
       </c>
@@ -12154,7 +12349,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>561</v>
       </c>
@@ -12168,7 +12363,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>564</v>
       </c>
@@ -12182,7 +12377,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>567</v>
       </c>
@@ -12196,7 +12391,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>570</v>
       </c>
@@ -12210,7 +12405,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>573</v>
       </c>
@@ -12224,7 +12419,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>576</v>
       </c>
@@ -12238,7 +12433,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>579</v>
       </c>
@@ -12252,7 +12447,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>582</v>
       </c>
@@ -12266,7 +12461,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>585</v>
       </c>
@@ -12280,7 +12475,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>586</v>
       </c>
@@ -12294,7 +12489,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>589</v>
       </c>
@@ -12308,7 +12503,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>592</v>
       </c>
@@ -12322,7 +12517,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>595</v>
       </c>
@@ -12336,7 +12531,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>689</v>
       </c>
@@ -12350,7 +12545,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>692</v>
       </c>
@@ -12364,7 +12559,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>598</v>
       </c>
@@ -12378,7 +12573,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>601</v>
       </c>
@@ -12392,7 +12587,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>604</v>
       </c>
@@ -12406,7 +12601,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>607</v>
       </c>
@@ -12420,7 +12615,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>610</v>
       </c>
@@ -12434,7 +12629,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>611</v>
       </c>
@@ -12448,7 +12643,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>614</v>
       </c>
@@ -12462,7 +12657,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>617</v>
       </c>
@@ -12476,7 +12671,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>618</v>
       </c>
@@ -12490,7 +12685,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>619</v>
       </c>
@@ -12504,7 +12699,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>622</v>
       </c>
@@ -12518,7 +12713,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>625</v>
       </c>
@@ -12532,7 +12727,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>628</v>
       </c>
@@ -12546,7 +12741,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>631</v>
       </c>
@@ -12560,7 +12755,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>634</v>
       </c>
@@ -12574,7 +12769,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>637</v>
       </c>
@@ -12588,7 +12783,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>640</v>
       </c>
@@ -12602,7 +12797,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>643</v>
       </c>
@@ -12616,7 +12811,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>644</v>
       </c>
@@ -12630,7 +12825,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>645</v>
       </c>
@@ -12644,7 +12839,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>648</v>
       </c>
@@ -12658,7 +12853,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>651</v>
       </c>
@@ -12672,7 +12867,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>654</v>
       </c>
@@ -12686,7 +12881,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>657</v>
       </c>
@@ -12700,7 +12895,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>660</v>
       </c>
@@ -12714,7 +12909,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>663</v>
       </c>
@@ -12728,7 +12923,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>664</v>
       </c>
@@ -12742,7 +12937,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>667</v>
       </c>
@@ -12756,7 +12951,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>670</v>
       </c>
@@ -12770,7 +12965,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>673</v>
       </c>
@@ -12784,7 +12979,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>674</v>
       </c>
@@ -12798,7 +12993,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>675</v>
       </c>
@@ -12812,7 +13007,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>678</v>
       </c>
@@ -12826,7 +13021,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>681</v>
       </c>
@@ -12840,7 +13035,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>693</v>
       </c>
@@ -12854,7 +13049,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>696</v>
       </c>
@@ -12868,7 +13063,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>699</v>
       </c>
@@ -12882,7 +13077,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>702</v>
       </c>
@@ -12896,7 +13091,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>705</v>
       </c>
@@ -12910,7 +13105,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>684</v>
       </c>
@@ -12924,7 +13119,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>685</v>
       </c>
@@ -12938,7 +13133,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>688</v>
       </c>
@@ -12952,7 +13147,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>708</v>
       </c>
@@ -12966,7 +13161,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>711</v>
       </c>
@@ -12980,7 +13175,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>712</v>
       </c>
@@ -12994,7 +13189,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>713</v>
       </c>
@@ -13008,7 +13203,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>714</v>
       </c>
@@ -13022,7 +13217,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>717</v>
       </c>
@@ -13036,7 +13231,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>718</v>
       </c>
@@ -13050,7 +13245,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>721</v>
       </c>
@@ -13064,7 +13259,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>724</v>
       </c>
@@ -13078,7 +13273,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>727</v>
       </c>
@@ -13092,7 +13287,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>730</v>
       </c>
@@ -13106,7 +13301,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>733</v>
       </c>
@@ -13120,7 +13315,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>736</v>
       </c>
@@ -13134,7 +13329,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>745</v>
       </c>
@@ -13148,7 +13343,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>748</v>
       </c>
@@ -13162,7 +13357,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>751</v>
       </c>
@@ -13176,7 +13371,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>754</v>
       </c>
@@ -13190,7 +13385,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>757</v>
       </c>
@@ -13204,7 +13399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>758</v>
       </c>
@@ -13218,7 +13413,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>761</v>
       </c>
@@ -13232,7 +13427,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>764</v>
       </c>
@@ -13246,7 +13441,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>739</v>
       </c>
@@ -13260,7 +13455,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>767</v>
       </c>
@@ -13274,7 +13469,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>742</v>
       </c>
@@ -13288,7 +13483,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>770</v>
       </c>
@@ -13302,7 +13497,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>773</v>
       </c>
@@ -13316,7 +13511,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>776</v>
       </c>
@@ -13330,7 +13525,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>779</v>
       </c>
@@ -13344,7 +13539,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>782</v>
       </c>
@@ -13358,7 +13553,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>785</v>
       </c>
@@ -13372,7 +13567,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>786</v>
       </c>
@@ -13386,7 +13581,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>787</v>
       </c>
@@ -13400,7 +13595,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>790</v>
       </c>
@@ -13414,7 +13609,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>793</v>
       </c>
@@ -13428,7 +13623,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>796</v>
       </c>
@@ -13442,7 +13637,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>799</v>
       </c>
@@ -13456,7 +13651,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>802</v>
       </c>
@@ -13470,7 +13665,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>803</v>
       </c>
@@ -13484,7 +13679,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>806</v>
       </c>
@@ -13498,7 +13693,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>809</v>
       </c>
@@ -13512,7 +13707,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>812</v>
       </c>
@@ -13526,7 +13721,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>815</v>
       </c>
@@ -13540,7 +13735,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>818</v>
       </c>
@@ -13554,7 +13749,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>821</v>
       </c>
@@ -13568,7 +13763,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>822</v>
       </c>
@@ -13582,7 +13777,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>825</v>
       </c>
@@ -13596,7 +13791,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>828</v>
       </c>
@@ -13610,7 +13805,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>831</v>
       </c>
@@ -13624,7 +13819,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>834</v>
       </c>
@@ -13638,7 +13833,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>837</v>
       </c>
@@ -13652,7 +13847,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>840</v>
       </c>
@@ -13666,7 +13861,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>843</v>
       </c>
@@ -13680,7 +13875,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>846</v>
       </c>
@@ -13694,7 +13889,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>849</v>
       </c>
@@ -13708,7 +13903,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>852</v>
       </c>
@@ -13722,7 +13917,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>855</v>
       </c>
@@ -13736,7 +13931,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>856</v>
       </c>
@@ -13750,7 +13945,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>859</v>
       </c>
@@ -13764,7 +13959,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>860</v>
       </c>
@@ -13778,7 +13973,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>863</v>
       </c>
@@ -13792,7 +13987,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>866</v>
       </c>
@@ -13806,7 +14001,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>869</v>
       </c>
@@ -13820,7 +14015,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>870</v>
       </c>
@@ -13834,7 +14029,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>873</v>
       </c>
@@ -13848,7 +14043,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>876</v>
       </c>
@@ -13862,7 +14057,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>877</v>
       </c>
@@ -13876,7 +14071,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>880</v>
       </c>
@@ -13890,7 +14085,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>881</v>
       </c>
@@ -13904,7 +14099,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>884</v>
       </c>
@@ -13918,7 +14113,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>887</v>
       </c>
@@ -13932,7 +14127,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>888</v>
       </c>
@@ -13946,7 +14141,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>891</v>
       </c>
@@ -13960,7 +14155,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>894</v>
       </c>
@@ -13974,7 +14169,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>895</v>
       </c>
@@ -13988,7 +14183,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>896</v>
       </c>
@@ -14002,7 +14197,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>899</v>
       </c>
@@ -14016,7 +14211,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>902</v>
       </c>
@@ -14030,7 +14225,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>903</v>
       </c>
@@ -14044,7 +14239,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>904</v>
       </c>
@@ -14058,7 +14253,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>907</v>
       </c>
@@ -14072,7 +14267,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>910</v>
       </c>
@@ -14086,7 +14281,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>913</v>
       </c>
@@ -14100,7 +14295,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>916</v>
       </c>
@@ -14114,7 +14309,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>919</v>
       </c>
@@ -14128,7 +14323,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>922</v>
       </c>
@@ -14142,7 +14337,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>925</v>
       </c>
@@ -14156,7 +14351,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>928</v>
       </c>
@@ -14170,7 +14365,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>931</v>
       </c>
@@ -14184,7 +14379,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>934</v>
       </c>
@@ -14198,7 +14393,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>947</v>
       </c>
@@ -14212,7 +14407,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>950</v>
       </c>
@@ -14226,7 +14421,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>953</v>
       </c>
@@ -14240,7 +14435,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>956</v>
       </c>
@@ -14254,7 +14449,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>959</v>
       </c>
@@ -14268,7 +14463,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>962</v>
       </c>
@@ -14282,7 +14477,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>965</v>
       </c>
@@ -14296,7 +14491,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>968</v>
       </c>
@@ -14310,7 +14505,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>971</v>
       </c>
@@ -14324,7 +14519,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>974</v>
       </c>
@@ -14338,7 +14533,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>975</v>
       </c>
@@ -14352,7 +14547,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>978</v>
       </c>
@@ -14366,7 +14561,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>981</v>
       </c>
@@ -14380,7 +14575,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>937</v>
       </c>
@@ -14394,7 +14589,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>940</v>
       </c>
@@ -14408,7 +14603,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>943</v>
       </c>
@@ -14422,7 +14617,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>944</v>
       </c>
@@ -14436,7 +14631,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>984</v>
       </c>
@@ -14450,7 +14645,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>988</v>
       </c>
@@ -14464,7 +14659,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>991</v>
       </c>
@@ -14478,7 +14673,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>994</v>
       </c>
@@ -14492,7 +14687,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>997</v>
       </c>
@@ -14506,7 +14701,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1000</v>
       </c>
@@ -14520,7 +14715,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1003</v>
       </c>
@@ -14534,7 +14729,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>987</v>
       </c>
@@ -14548,7 +14743,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1006</v>
       </c>
@@ -14562,7 +14757,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1009</v>
       </c>
@@ -14576,7 +14771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1010</v>
       </c>
@@ -14590,7 +14785,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1013</v>
       </c>
@@ -14604,7 +14799,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1016</v>
       </c>
@@ -14618,7 +14813,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1019</v>
       </c>
@@ -14632,7 +14827,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1022</v>
       </c>
@@ -14646,7 +14841,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1025</v>
       </c>
@@ -14660,7 +14855,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1026</v>
       </c>
@@ -14674,7 +14869,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1029</v>
       </c>
@@ -14688,7 +14883,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1032</v>
       </c>
@@ -14702,7 +14897,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1033</v>
       </c>
@@ -14716,7 +14911,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1036</v>
       </c>
@@ -14730,7 +14925,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1039</v>
       </c>
@@ -14744,7 +14939,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1042</v>
       </c>
@@ -14758,7 +14953,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1045</v>
       </c>
@@ -14772,7 +14967,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1048</v>
       </c>
@@ -14786,7 +14981,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1051</v>
       </c>
@@ -14800,7 +14995,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1054</v>
       </c>
@@ -14814,7 +15009,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1057</v>
       </c>
@@ -14828,7 +15023,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1058</v>
       </c>
@@ -14842,7 +15037,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1061</v>
       </c>
@@ -14856,7 +15051,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1064</v>
       </c>
@@ -14870,7 +15065,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1067</v>
       </c>
@@ -14884,7 +15079,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1068</v>
       </c>
@@ -14898,7 +15093,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1069</v>
       </c>
@@ -14912,7 +15107,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1072</v>
       </c>
@@ -14926,7 +15121,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1075</v>
       </c>
@@ -14940,7 +15135,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1078</v>
       </c>
@@ -14954,7 +15149,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1081</v>
       </c>
@@ -14968,7 +15163,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1084</v>
       </c>
@@ -14982,7 +15177,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1087</v>
       </c>
@@ -14996,7 +15191,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1093</v>
       </c>
@@ -15010,7 +15205,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1096</v>
       </c>
@@ -15024,7 +15219,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1097</v>
       </c>
@@ -15038,7 +15233,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1100</v>
       </c>
@@ -15052,7 +15247,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1103</v>
       </c>
@@ -15066,7 +15261,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1106</v>
       </c>
@@ -15080,7 +15275,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1109</v>
       </c>
@@ -15094,7 +15289,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1110</v>
       </c>
@@ -15108,7 +15303,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1111</v>
       </c>
@@ -15122,7 +15317,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1114</v>
       </c>
@@ -15136,7 +15331,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1115</v>
       </c>
@@ -15150,7 +15345,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1118</v>
       </c>
@@ -15164,7 +15359,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1121</v>
       </c>
@@ -15178,7 +15373,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1124</v>
       </c>
@@ -15192,7 +15387,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1127</v>
       </c>
@@ -15206,7 +15401,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1130</v>
       </c>
@@ -15220,7 +15415,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1133</v>
       </c>
@@ -15234,7 +15429,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1134</v>
       </c>
@@ -15248,7 +15443,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1135</v>
       </c>
@@ -15262,7 +15457,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1138</v>
       </c>
@@ -15276,7 +15471,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1141</v>
       </c>
@@ -15290,7 +15485,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>1142</v>
       </c>
@@ -15304,7 +15499,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1145</v>
       </c>
@@ -15318,7 +15513,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1148</v>
       </c>
@@ -15332,7 +15527,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1151</v>
       </c>
@@ -15346,7 +15541,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1152</v>
       </c>
@@ -15360,7 +15555,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1155</v>
       </c>
@@ -15374,7 +15569,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1156</v>
       </c>
@@ -15388,7 +15583,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1159</v>
       </c>
@@ -15402,7 +15597,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1162</v>
       </c>
@@ -15416,7 +15611,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1165</v>
       </c>
@@ -15430,7 +15625,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1168</v>
       </c>
@@ -15444,7 +15639,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1169</v>
       </c>
@@ -15458,7 +15653,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1172</v>
       </c>
@@ -15472,7 +15667,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1175</v>
       </c>
@@ -15486,7 +15681,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1178</v>
       </c>
@@ -15500,7 +15695,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1181</v>
       </c>
@@ -15514,7 +15709,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1090</v>
       </c>
@@ -15528,7 +15723,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1184</v>
       </c>
@@ -15542,7 +15737,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1190</v>
       </c>
@@ -15556,7 +15751,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1193</v>
       </c>
@@ -15570,7 +15765,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1196</v>
       </c>
@@ -15584,7 +15779,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1199</v>
       </c>
@@ -15598,7 +15793,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1200</v>
       </c>
@@ -15612,7 +15807,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1203</v>
       </c>
@@ -15626,7 +15821,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1204</v>
       </c>
@@ -15640,7 +15835,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1207</v>
       </c>
@@ -15654,7 +15849,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1210</v>
       </c>
@@ -15668,7 +15863,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1211</v>
       </c>
@@ -15682,7 +15877,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1212</v>
       </c>
@@ -15696,7 +15891,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1215</v>
       </c>
@@ -15710,7 +15905,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1218</v>
       </c>
@@ -15724,7 +15919,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1219</v>
       </c>
@@ -15738,7 +15933,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1222</v>
       </c>
@@ -15752,7 +15947,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1225</v>
       </c>
@@ -15766,7 +15961,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1226</v>
       </c>
@@ -15780,7 +15975,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1229</v>
       </c>
@@ -15794,7 +15989,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1187</v>
       </c>
@@ -15808,7 +16003,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1232</v>
       </c>
@@ -15822,7 +16017,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1235</v>
       </c>
@@ -15836,7 +16031,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>1238</v>
       </c>
@@ -15850,7 +16045,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1241</v>
       </c>
@@ -15864,7 +16059,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1244</v>
       </c>
@@ -15878,7 +16073,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1247</v>
       </c>
@@ -15892,7 +16087,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1250</v>
       </c>
@@ -15906,7 +16101,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1256</v>
       </c>
@@ -15920,7 +16115,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1259</v>
       </c>
@@ -15934,7 +16129,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1253</v>
       </c>
@@ -15948,7 +16143,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1262</v>
       </c>
@@ -15962,7 +16157,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1265</v>
       </c>
@@ -15976,7 +16171,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1266</v>
       </c>
@@ -15990,7 +16185,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1269</v>
       </c>
@@ -16004,7 +16199,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1272</v>
       </c>
@@ -16018,7 +16213,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1275</v>
       </c>
@@ -16032,7 +16227,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1276</v>
       </c>
@@ -16046,7 +16241,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1279</v>
       </c>
@@ -16060,7 +16255,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>1282</v>
       </c>
@@ -16074,7 +16269,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1285</v>
       </c>
@@ -16088,7 +16283,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1286</v>
       </c>
@@ -16102,7 +16297,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1289</v>
       </c>
@@ -16116,7 +16311,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>1292</v>
       </c>
@@ -16130,7 +16325,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1295</v>
       </c>
@@ -16144,7 +16339,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1298</v>
       </c>
@@ -16158,7 +16353,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1311</v>
       </c>
@@ -16172,7 +16367,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1314</v>
       </c>
@@ -16186,7 +16381,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1317</v>
       </c>
@@ -16200,7 +16395,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1320</v>
       </c>
@@ -16214,7 +16409,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1323</v>
       </c>
@@ -16228,7 +16423,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1326</v>
       </c>
@@ -16242,7 +16437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1327</v>
       </c>
@@ -16256,7 +16451,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1330</v>
       </c>
@@ -16270,7 +16465,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1299</v>
       </c>
@@ -16284,7 +16479,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1333</v>
       </c>
@@ -16298,7 +16493,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1334</v>
       </c>
@@ -16312,7 +16507,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1337</v>
       </c>
@@ -16326,7 +16521,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1340</v>
       </c>
@@ -16340,7 +16535,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1343</v>
       </c>
@@ -16354,7 +16549,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1346</v>
       </c>
@@ -16368,7 +16563,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1302</v>
       </c>
@@ -16382,7 +16577,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1349</v>
       </c>
@@ -16396,7 +16591,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1352</v>
       </c>
@@ -16410,7 +16605,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1355</v>
       </c>
@@ -16424,7 +16619,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1358</v>
       </c>
@@ -16438,7 +16633,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1305</v>
       </c>
@@ -16452,7 +16647,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1361</v>
       </c>
@@ -16466,7 +16661,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1364</v>
       </c>
@@ -16480,7 +16675,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1367</v>
       </c>
@@ -16494,7 +16689,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1368</v>
       </c>
@@ -16508,7 +16703,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1371</v>
       </c>
@@ -16522,7 +16717,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1374</v>
       </c>
@@ -16536,7 +16731,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1377</v>
       </c>
@@ -16550,7 +16745,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1378</v>
       </c>
@@ -16564,7 +16759,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1381</v>
       </c>
@@ -16578,7 +16773,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1384</v>
       </c>
@@ -16592,7 +16787,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1385</v>
       </c>
@@ -16606,7 +16801,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1386</v>
       </c>
@@ -16620,7 +16815,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1389</v>
       </c>
@@ -16634,7 +16829,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1392</v>
       </c>
@@ -16648,7 +16843,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1393</v>
       </c>
@@ -16662,7 +16857,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1308</v>
       </c>
@@ -16676,7 +16871,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1394</v>
       </c>
@@ -16690,7 +16885,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1397</v>
       </c>
@@ -16705,7 +16900,7 @@
       </c>
       <c r="F539" s="1"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1400</v>
       </c>
@@ -16719,7 +16914,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1403</v>
       </c>
@@ -16733,7 +16928,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1410</v>
       </c>
@@ -16747,7 +16942,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1413</v>
       </c>
@@ -16761,7 +16956,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1416</v>
       </c>
@@ -16775,7 +16970,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1419</v>
       </c>
@@ -16789,7 +16984,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1422</v>
       </c>
@@ -16803,7 +16998,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1425</v>
       </c>
@@ -16817,7 +17012,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1428</v>
       </c>
@@ -16831,7 +17026,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1429</v>
       </c>
@@ -16845,7 +17040,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1404</v>
       </c>
@@ -16859,7 +17054,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1432</v>
       </c>
@@ -16873,7 +17068,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1435</v>
       </c>
@@ -16887,7 +17082,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1438</v>
       </c>
@@ -16901,7 +17096,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1441</v>
       </c>
@@ -16915,7 +17110,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1444</v>
       </c>
@@ -16929,7 +17124,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1447</v>
       </c>
@@ -16943,7 +17138,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1450</v>
       </c>
@@ -16957,7 +17152,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1453</v>
       </c>
@@ -16971,7 +17166,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1456</v>
       </c>
@@ -16985,7 +17180,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1459</v>
       </c>
@@ -16999,7 +17194,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1462</v>
       </c>
@@ -17013,7 +17208,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1465</v>
       </c>
@@ -17027,7 +17222,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1468</v>
       </c>
@@ -17041,7 +17236,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1471</v>
       </c>
@@ -17055,7 +17250,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1474</v>
       </c>
@@ -17069,7 +17264,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1475</v>
       </c>
@@ -17083,7 +17278,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1478</v>
       </c>
@@ -17097,7 +17292,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1481</v>
       </c>
@@ -17111,7 +17306,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1482</v>
       </c>
@@ -17125,7 +17320,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1407</v>
       </c>
@@ -17139,7 +17334,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1485</v>
       </c>
@@ -17153,7 +17348,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1486</v>
       </c>
@@ -17167,7 +17362,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1489</v>
       </c>
@@ -17181,7 +17376,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1492</v>
       </c>
@@ -17195,7 +17390,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>1495</v>
       </c>
@@ -17209,7 +17404,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1498</v>
       </c>
@@ -17223,7 +17418,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1499</v>
       </c>
@@ -17237,7 +17432,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1502</v>
       </c>
@@ -17251,7 +17446,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1505</v>
       </c>
@@ -17265,7 +17460,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1541</v>
       </c>
@@ -17279,7 +17474,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1544</v>
       </c>
@@ -17293,7 +17488,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1547</v>
       </c>
@@ -17307,7 +17502,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1550</v>
       </c>
@@ -17321,7 +17516,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1551</v>
       </c>
@@ -17335,7 +17530,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1554</v>
       </c>
@@ -17349,7 +17544,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1555</v>
       </c>
@@ -17363,7 +17558,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1558</v>
       </c>
@@ -17377,7 +17572,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1561</v>
       </c>
@@ -17391,7 +17586,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1562</v>
       </c>
@@ -17405,7 +17600,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1568</v>
       </c>
@@ -17419,7 +17614,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1565</v>
       </c>
@@ -17433,7 +17628,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1569</v>
       </c>
@@ -17447,7 +17642,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1572</v>
       </c>
@@ -17461,7 +17656,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1573</v>
       </c>
@@ -17475,7 +17670,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1574</v>
       </c>
@@ -17489,7 +17684,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1577</v>
       </c>
@@ -17503,7 +17698,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1578</v>
       </c>
@@ -17517,7 +17712,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1581</v>
       </c>
@@ -17531,7 +17726,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1584</v>
       </c>
@@ -17545,7 +17740,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1508</v>
       </c>
@@ -17559,7 +17754,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1511</v>
       </c>
@@ -17573,7 +17768,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1587</v>
       </c>
@@ -17587,7 +17782,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1588</v>
       </c>
@@ -17601,7 +17796,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1514</v>
       </c>
@@ -17615,7 +17810,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1517</v>
       </c>
@@ -17629,7 +17824,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1591</v>
       </c>
@@ -17643,7 +17838,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1594</v>
       </c>
@@ -17657,7 +17852,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1597</v>
       </c>
@@ -17671,7 +17866,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1600</v>
       </c>
@@ -17685,7 +17880,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1601</v>
       </c>
@@ -17699,7 +17894,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1604</v>
       </c>
@@ -17713,7 +17908,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1607</v>
       </c>
@@ -17727,7 +17922,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1610</v>
       </c>
@@ -17741,7 +17936,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1613</v>
       </c>
@@ -17755,7 +17950,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1616</v>
       </c>
@@ -17769,7 +17964,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1619</v>
       </c>
@@ -17783,7 +17978,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1622</v>
       </c>
@@ -17797,7 +17992,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1623</v>
       </c>
@@ -17811,7 +18006,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1626</v>
       </c>
@@ -17825,7 +18020,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1629</v>
       </c>
@@ -17839,7 +18034,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1632</v>
       </c>
@@ -17853,7 +18048,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1635</v>
       </c>
@@ -17867,7 +18062,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1520</v>
       </c>
@@ -17881,7 +18076,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1523</v>
       </c>
@@ -17895,7 +18090,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1638</v>
       </c>
@@ -17909,7 +18104,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1641</v>
       </c>
@@ -17923,7 +18118,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1642</v>
       </c>
@@ -17937,7 +18132,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1645</v>
       </c>
@@ -17951,7 +18146,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1646</v>
       </c>
@@ -17965,7 +18160,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1649</v>
       </c>
@@ -17979,7 +18174,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1652</v>
       </c>
@@ -17993,7 +18188,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1655</v>
       </c>
@@ -18007,7 +18202,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1658</v>
       </c>
@@ -18021,7 +18216,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1661</v>
       </c>
@@ -18035,7 +18230,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1667</v>
       </c>
@@ -18049,7 +18244,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1670</v>
       </c>
@@ -18063,7 +18258,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1673</v>
       </c>
@@ -18077,7 +18272,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1676</v>
       </c>
@@ -18091,7 +18286,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1679</v>
       </c>
@@ -18105,7 +18300,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1682</v>
       </c>
@@ -18119,7 +18314,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1689</v>
       </c>
@@ -18133,7 +18328,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1685</v>
       </c>
@@ -18147,7 +18342,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1688</v>
       </c>
@@ -18161,7 +18356,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1664</v>
       </c>
@@ -18175,7 +18370,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1692</v>
       </c>
@@ -18189,7 +18384,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1695</v>
       </c>
@@ -18203,7 +18398,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1698</v>
       </c>
@@ -18217,7 +18412,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1699</v>
       </c>
@@ -18231,7 +18426,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1702</v>
       </c>
@@ -18245,7 +18440,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1705</v>
       </c>
@@ -18259,7 +18454,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1708</v>
       </c>
@@ -18273,7 +18468,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1711</v>
       </c>
@@ -18287,7 +18482,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1712</v>
       </c>
@@ -18301,7 +18496,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1715</v>
       </c>
@@ -18315,7 +18510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1716</v>
       </c>
@@ -18329,7 +18524,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1719</v>
       </c>
@@ -18343,7 +18538,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1720</v>
       </c>
@@ -18357,7 +18552,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1723</v>
       </c>
@@ -18371,7 +18566,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1726</v>
       </c>
@@ -18385,7 +18580,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1729</v>
       </c>
@@ -18399,7 +18594,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1732</v>
       </c>
@@ -18413,7 +18608,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1526</v>
       </c>
@@ -18427,7 +18622,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1529</v>
       </c>
@@ -18441,7 +18636,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1532</v>
       </c>
@@ -18455,7 +18650,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1535</v>
       </c>
@@ -18469,7 +18664,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1538</v>
       </c>
@@ -18483,7 +18678,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1735</v>
       </c>
@@ -18497,7 +18692,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1738</v>
       </c>
@@ -18511,7 +18706,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1741</v>
       </c>
@@ -18525,7 +18720,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1742</v>
       </c>
@@ -18539,7 +18734,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1748</v>
       </c>
@@ -18553,7 +18748,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1749</v>
       </c>
@@ -18567,7 +18762,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1752</v>
       </c>
@@ -18581,7 +18776,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1755</v>
       </c>
@@ -18595,7 +18790,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1758</v>
       </c>
@@ -18609,7 +18804,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1761</v>
       </c>
@@ -18623,7 +18818,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1764</v>
       </c>
@@ -18637,7 +18832,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1767</v>
       </c>
@@ -18651,7 +18846,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1770</v>
       </c>
@@ -18665,7 +18860,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1773</v>
       </c>
@@ -18679,7 +18874,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1774</v>
       </c>
@@ -18693,7 +18888,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1777</v>
       </c>
@@ -18707,7 +18902,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1778</v>
       </c>
@@ -18721,7 +18916,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1779</v>
       </c>
@@ -18735,7 +18930,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1782</v>
       </c>
@@ -18749,7 +18944,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1785</v>
       </c>
@@ -18763,7 +18958,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1788</v>
       </c>
@@ -18777,7 +18972,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1791</v>
       </c>
@@ -18791,7 +18986,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1794</v>
       </c>
@@ -18805,7 +19000,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1797</v>
       </c>
@@ -18819,7 +19014,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1800</v>
       </c>
@@ -18833,7 +19028,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1801</v>
       </c>
@@ -18847,7 +19042,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1804</v>
       </c>
@@ -18861,7 +19056,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1807</v>
       </c>
@@ -18875,7 +19070,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1810</v>
       </c>
@@ -18889,7 +19084,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1811</v>
       </c>
@@ -18903,7 +19098,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1814</v>
       </c>
@@ -18917,7 +19112,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1745</v>
       </c>
@@ -18931,7 +19126,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1817</v>
       </c>
@@ -18945,7 +19140,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1822</v>
       </c>
@@ -18959,7 +19154,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1825</v>
       </c>
@@ -18973,7 +19168,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1828</v>
       </c>
@@ -18987,7 +19182,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1831</v>
       </c>
@@ -19001,7 +19196,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1818</v>
       </c>
@@ -19015,7 +19210,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1821</v>
       </c>
@@ -19029,7 +19224,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1834</v>
       </c>
@@ -19043,7 +19238,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1839</v>
       </c>
@@ -19057,7 +19252,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1842</v>
       </c>
@@ -19071,7 +19266,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1845</v>
       </c>
@@ -19085,7 +19280,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1848</v>
       </c>
@@ -19099,7 +19294,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1851</v>
       </c>
@@ -19113,7 +19308,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1852</v>
       </c>
@@ -19127,7 +19322,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1855</v>
       </c>
@@ -19141,7 +19336,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1858</v>
       </c>
@@ -19155,7 +19350,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1861</v>
       </c>
@@ -19169,7 +19364,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1864</v>
       </c>
@@ -19183,7 +19378,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1867</v>
       </c>
@@ -19197,7 +19392,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1870</v>
       </c>
@@ -19211,7 +19406,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1873</v>
       </c>
@@ -19225,7 +19420,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1876</v>
       </c>
@@ -19239,7 +19434,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1877</v>
       </c>
@@ -19253,7 +19448,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1880</v>
       </c>
@@ -19267,7 +19462,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1881</v>
       </c>
@@ -19281,7 +19476,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1884</v>
       </c>
@@ -19295,7 +19490,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1887</v>
       </c>
@@ -19309,7 +19504,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1890</v>
       </c>
@@ -19323,7 +19518,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1893</v>
       </c>
@@ -19337,7 +19532,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1896</v>
       </c>
@@ -19351,7 +19546,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1899</v>
       </c>
@@ -19365,7 +19560,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1902</v>
       </c>
@@ -19379,7 +19574,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1905</v>
       </c>
@@ -19393,7 +19588,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1908</v>
       </c>
@@ -19407,7 +19602,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1909</v>
       </c>
@@ -19421,7 +19616,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1912</v>
       </c>
@@ -19435,7 +19630,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1915</v>
       </c>
@@ -19449,7 +19644,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1835</v>
       </c>
@@ -19463,7 +19658,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1838</v>
       </c>
@@ -19477,7 +19672,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1919</v>
       </c>
@@ -19491,7 +19686,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1922</v>
       </c>
@@ -19505,7 +19700,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1925</v>
       </c>
@@ -19519,7 +19714,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1926</v>
       </c>
@@ -19533,7 +19728,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1929</v>
       </c>
@@ -19547,7 +19742,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1932</v>
       </c>
@@ -19561,7 +19756,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1933</v>
       </c>
@@ -19575,7 +19770,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1935</v>
       </c>
@@ -19589,7 +19784,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1938</v>
       </c>
@@ -19603,7 +19798,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1941</v>
       </c>
@@ -19617,7 +19812,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1944</v>
       </c>
@@ -19631,7 +19826,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1947</v>
       </c>
@@ -19645,7 +19840,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1950</v>
       </c>
@@ -19659,7 +19854,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1953</v>
       </c>
@@ -19673,7 +19868,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1918</v>
       </c>
@@ -19687,7 +19882,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1956</v>
       </c>
@@ -19701,7 +19896,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1959</v>
       </c>
@@ -19715,7 +19910,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1962</v>
       </c>
@@ -19729,7 +19924,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1965</v>
       </c>
@@ -19743,7 +19938,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1968</v>
       </c>
@@ -19757,7 +19952,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1971</v>
       </c>
@@ -19771,7 +19966,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1974</v>
       </c>
@@ -19785,7 +19980,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1977</v>
       </c>
@@ -19799,7 +19994,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1980</v>
       </c>
@@ -19813,7 +20008,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>2809</v>
       </c>
@@ -19827,7 +20022,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>2814</v>
       </c>
@@ -19841,7 +20036,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>2815</v>
       </c>
@@ -19855,7 +20050,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>2816</v>
       </c>
@@ -19869,7 +20064,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>2817</v>
       </c>
@@ -19883,7 +20078,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>2818</v>
       </c>
@@ -19897,7 +20092,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>2828</v>
       </c>
@@ -19911,7 +20106,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>2829</v>
       </c>
@@ -19925,7 +20120,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>2830</v>
       </c>
@@ -19939,7 +20134,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>2831</v>
       </c>
@@ -19953,7 +20148,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>2832</v>
       </c>
@@ -19967,7 +20162,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>2833</v>
       </c>
@@ -19981,7 +20176,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>2834</v>
       </c>
@@ -19995,7 +20190,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>2847</v>
       </c>
@@ -20009,7 +20204,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>2848</v>
       </c>
@@ -20023,7 +20218,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>2849</v>
       </c>
@@ -20037,7 +20232,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>2856</v>
       </c>
@@ -20051,7 +20246,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>2857</v>
       </c>
@@ -20065,7 +20260,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>2858</v>
       </c>
@@ -20079,7 +20274,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>2859</v>
       </c>
@@ -20093,7 +20288,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>2860</v>
       </c>
@@ -20107,7 +20302,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>2861</v>
       </c>
@@ -20121,7 +20316,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>2862</v>
       </c>
@@ -20135,7 +20330,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>2863</v>
       </c>
@@ -20149,7 +20344,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>2864</v>
       </c>
@@ -20163,7 +20358,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>2865</v>
       </c>
@@ -20177,7 +20372,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>2884</v>
       </c>
@@ -20191,7 +20386,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>2885</v>
       </c>
@@ -20205,7 +20400,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>2886</v>
       </c>
@@ -20219,7 +20414,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>2887</v>
       </c>
@@ -20233,7 +20428,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>2888</v>
       </c>
@@ -20247,7 +20442,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>2889</v>
       </c>
@@ -20261,7 +20456,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>2890</v>
       </c>
@@ -20275,7 +20470,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>2891</v>
       </c>
@@ -20289,7 +20484,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>2892</v>
       </c>
@@ -20303,7 +20498,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>2893</v>
       </c>
@@ -20317,7 +20512,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>2894</v>
       </c>
@@ -20331,7 +20526,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>2917</v>
       </c>
@@ -20345,7 +20540,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>2920</v>
       </c>
@@ -20359,9 +20554,905 @@
         <v>150.832855</v>
       </c>
     </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C801">
+        <v>33.585999999999999</v>
+      </c>
+      <c r="D801">
+        <v>130.46090000000001</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B802" s="2">
+        <v>17924</v>
+      </c>
+      <c r="C802">
+        <v>34.168300000000002</v>
+      </c>
+      <c r="D802">
+        <v>134.61770000000001</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B803" s="2">
+        <v>470</v>
+      </c>
+      <c r="C803">
+        <v>39.124600000000001</v>
+      </c>
+      <c r="D803">
+        <v>-94.830799999999996</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B804" s="2">
+        <v>11700</v>
+      </c>
+      <c r="C804">
+        <v>38.259290999999997</v>
+      </c>
+      <c r="D804">
+        <v>-85.7349064</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B805" s="2">
+        <v>20500</v>
+      </c>
+      <c r="C805">
+        <v>30.388206</v>
+      </c>
+      <c r="D805">
+        <v>-97.719836999999998</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B806" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C806">
+        <v>59.239535699999998</v>
+      </c>
+      <c r="D806">
+        <v>59.239535699999998</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B807" s="2">
+        <v>5500</v>
+      </c>
+      <c r="C807">
+        <v>37.794765400000003</v>
+      </c>
+      <c r="D807">
+        <v>-122.26027070000001</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B808" s="2">
+        <v>44000</v>
+      </c>
+      <c r="C808">
+        <v>-15.6040653</v>
+      </c>
+      <c r="D808">
+        <v>-56.122062399999997</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B809" s="2">
+        <v>4400</v>
+      </c>
+      <c r="C809">
+        <v>-34.647475499999999</v>
+      </c>
+      <c r="D809">
+        <v>-58.397098900000003</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B810" s="2">
+        <v>19924</v>
+      </c>
+      <c r="C810">
+        <v>-29.162227900000001</v>
+      </c>
+      <c r="D810">
+        <v>-51.176757299999998</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B811" s="2">
+        <v>7933</v>
+      </c>
+      <c r="C811">
+        <v>42.392485600000001</v>
+      </c>
+      <c r="D811">
+        <v>-83.049246499999995</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B812" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C812">
+        <v>36.650820299999999</v>
+      </c>
+      <c r="D812">
+        <v>-121.8059082</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B813" s="2">
+        <v>38000</v>
+      </c>
+      <c r="C813">
+        <v>35.225795499999997</v>
+      </c>
+      <c r="D813">
+        <v>-80.853254199999995</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B814" s="2">
+        <v>35000</v>
+      </c>
+      <c r="C814">
+        <v>32.783135999999999</v>
+      </c>
+      <c r="D814">
+        <v>-117.11983119999999</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B815" s="2">
+        <v>7384</v>
+      </c>
+      <c r="C815">
+        <v>52.494433999999998</v>
+      </c>
+      <c r="D815">
+        <v>5.0662327999999999</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B816" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C816">
+        <v>51.822503300000001</v>
+      </c>
+      <c r="D816">
+        <v>5.8371389000000002</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B817" s="2">
+        <v>9566</v>
+      </c>
+      <c r="C817">
+        <v>56.455979999999997</v>
+      </c>
+      <c r="D817">
+        <v>9.4018227999999997</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B818" s="2">
+        <v>8550</v>
+      </c>
+      <c r="C818">
+        <v>47.500808300000003</v>
+      </c>
+      <c r="D818">
+        <v>8.7172485999999996</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B819">
+        <v>5000</v>
+      </c>
+      <c r="C819">
+        <v>57.1958664</v>
+      </c>
+      <c r="D819">
+        <v>14.0424769</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B820">
+        <v>44899</v>
+      </c>
+      <c r="C820">
+        <v>56.337500800000001</v>
+      </c>
+      <c r="D820">
+        <v>43.962790699999999</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B821">
+        <v>16636</v>
+      </c>
+      <c r="C821">
+        <v>55.885334800000003</v>
+      </c>
+      <c r="D821">
+        <v>37.452582999999997</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B822">
+        <v>8800</v>
+      </c>
+      <c r="C822">
+        <v>47.421534800000003</v>
+      </c>
+      <c r="D822">
+        <v>9.6516602000000002</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B823">
+        <v>43500</v>
+      </c>
+      <c r="C823">
+        <v>-25.461747599999999</v>
+      </c>
+      <c r="D823">
+        <v>30.929160599999999</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B824">
+        <v>5000</v>
+      </c>
+      <c r="C824">
+        <v>39.939380900000003</v>
+      </c>
+      <c r="D824">
+        <v>-0.116924</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B825">
+        <v>3300</v>
+      </c>
+      <c r="C825">
+        <v>58.346011400000002</v>
+      </c>
+      <c r="D825">
+        <v>8.5915706000000007</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B826">
+        <v>1601</v>
+      </c>
+      <c r="C826">
+        <v>41.058878999999997</v>
+      </c>
+      <c r="D826">
+        <v>29.1088463</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B827">
+        <v>6100</v>
+      </c>
+      <c r="C827">
+        <v>41.388794099999998</v>
+      </c>
+      <c r="D827">
+        <v>-8.3075892000000007</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B828">
+        <v>4500</v>
+      </c>
+      <c r="C828">
+        <v>38.913773499999998</v>
+      </c>
+      <c r="D828">
+        <v>1.4147968</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B829">
+        <v>7600</v>
+      </c>
+      <c r="C829">
+        <v>60.795652099999998</v>
+      </c>
+      <c r="D829">
+        <v>11.092238999999999</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B830">
+        <v>21092</v>
+      </c>
+      <c r="C830">
+        <v>44.653486899999997</v>
+      </c>
+      <c r="D830">
+        <v>10.922443100000001</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B831">
+        <v>5539</v>
+      </c>
+      <c r="C831">
+        <v>46.4920434</v>
+      </c>
+      <c r="D831">
+        <v>11.345992799999999</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B832">
+        <v>12194</v>
+      </c>
+      <c r="C832">
+        <v>42.344262299999997</v>
+      </c>
+      <c r="D832">
+        <v>-3.6807074000000002</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B833">
+        <v>22000</v>
+      </c>
+      <c r="C833">
+        <v>34.012740800000003</v>
+      </c>
+      <c r="D833">
+        <v>-118.28408229999999</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B834">
+        <v>5000</v>
+      </c>
+      <c r="C834">
+        <v>40.933036299999998</v>
+      </c>
+      <c r="D834">
+        <v>-8.2503737000000008</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B835">
+        <v>33543</v>
+      </c>
+      <c r="C835">
+        <v>37.063592800000002</v>
+      </c>
+      <c r="D835">
+        <v>35.374635099999999</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B836">
+        <v>15660</v>
+      </c>
+      <c r="C836">
+        <v>45.916531499999998</v>
+      </c>
+      <c r="D836">
+        <v>6.1179968999999996</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B837">
+        <v>10500</v>
+      </c>
+      <c r="C837">
+        <v>53.205460199999997</v>
+      </c>
+      <c r="D837">
+        <v>5.8144437</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B838">
+        <v>25000</v>
+      </c>
+      <c r="C838">
+        <v>39.749603100000002</v>
+      </c>
+      <c r="D838">
+        <v>-8.8140744000000009</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B839">
+        <v>13602</v>
+      </c>
+      <c r="C839">
+        <v>45.8138747</v>
+      </c>
+      <c r="D839">
+        <v>9.0722331000000001</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B840">
+        <v>32750</v>
+      </c>
+      <c r="C840">
+        <v>51.6727913</v>
+      </c>
+      <c r="D840">
+        <v>39.203725400000003</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B841">
+        <v>3306</v>
+      </c>
+      <c r="C841">
+        <v>42.504663600000001</v>
+      </c>
+      <c r="D841">
+        <v>1.5174453999999999</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B842">
+        <v>22028</v>
+      </c>
+      <c r="C842">
+        <v>40.889417000000002</v>
+      </c>
+      <c r="D842">
+        <v>38.439257499999997</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B843">
+        <v>10000</v>
+      </c>
+      <c r="C843">
+        <v>52.260332599999998</v>
+      </c>
+      <c r="D843">
+        <v>6.1724112</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B844">
+        <v>29000</v>
+      </c>
+      <c r="C844">
+        <v>54.084935199999997</v>
+      </c>
+      <c r="D844">
+        <v>12.0948902</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B845">
+        <v>7856</v>
+      </c>
+      <c r="C845">
+        <v>54.689151099999997</v>
+      </c>
+      <c r="D845">
+        <v>-1.2127540000000001</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B846">
+        <v>6000</v>
+      </c>
+      <c r="C846">
+        <v>37.977107500000002</v>
+      </c>
+      <c r="D846">
+        <v>23.634866599999999</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B847">
+        <v>4491</v>
+      </c>
+      <c r="C847">
+        <v>41.024355200000002</v>
+      </c>
+      <c r="D847">
+        <v>28.697579699999999</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B848">
+        <v>8035</v>
+      </c>
+      <c r="C848">
+        <v>51.094782899999998</v>
+      </c>
+      <c r="D848">
+        <v>4.9287026999999997</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B849">
+        <v>21600</v>
+      </c>
+      <c r="C849">
+        <v>35.017131200000001</v>
+      </c>
+      <c r="D849">
+        <v>135.58491549999999</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B850">
+        <v>18739</v>
+      </c>
+      <c r="C850">
+        <v>48.082259700000002</v>
+      </c>
+      <c r="D850">
+        <v>-0.7550848</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B851">
+        <v>32500</v>
+      </c>
+      <c r="C851">
+        <v>52.620323599999999</v>
+      </c>
+      <c r="D851">
+        <v>-1.1424430000000001</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B852">
+        <v>16587</v>
+      </c>
+      <c r="C852">
+        <v>53.373860100000002</v>
+      </c>
+      <c r="D852">
+        <v>-3.0325568000000001</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B853">
+        <v>24000</v>
+      </c>
+      <c r="C853">
+        <v>-26.226827</v>
+      </c>
+      <c r="D853">
+        <v>27.863657199999999</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B854">
+        <v>12000</v>
+      </c>
+      <c r="C854">
+        <v>15.846791</v>
+      </c>
+      <c r="D854">
+        <v>-87.937998500000006</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B855">
+        <v>8207</v>
+      </c>
+      <c r="C855">
+        <v>50.600560399999999</v>
+      </c>
+      <c r="D855">
+        <v>5.5034964000000004</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B856">
+        <v>8000</v>
+      </c>
+      <c r="C856">
+        <v>-28.743552900000001</v>
+      </c>
+      <c r="D856">
+        <v>32.0558598</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B857">
+        <v>22000</v>
+      </c>
+      <c r="C857">
+        <v>-29.9103952</v>
+      </c>
+      <c r="D857">
+        <v>30.8772713</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B858">
+        <v>22000</v>
+      </c>
+      <c r="C858">
+        <v>-34.5853082</v>
+      </c>
+      <c r="D858">
+        <v>-60.931516500000001</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B859">
+        <v>10000</v>
+      </c>
+      <c r="C859">
+        <v>-25.999099300000001</v>
+      </c>
+      <c r="D859">
+        <v>28.2280163</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B860">
+        <v>32000</v>
+      </c>
+      <c r="C860">
+        <v>46.608938299999998</v>
+      </c>
+      <c r="D860">
+        <v>14.2781109</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B861">
+        <v>10900</v>
+      </c>
+      <c r="C861">
+        <v>53.3996432</v>
+      </c>
+      <c r="D861">
+        <v>-2.1664648999999998</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B862">
+        <v>5013</v>
+      </c>
+      <c r="C862">
+        <v>1.3676435</v>
+      </c>
+      <c r="D862">
+        <v>-0.2044513</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B863">
+        <v>40000</v>
+      </c>
+      <c r="C863">
+        <v>-23.9247458</v>
+      </c>
+      <c r="D863">
+        <v>29.468685700000002</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B864">
+        <v>9400</v>
+      </c>
+      <c r="C864">
+        <v>50.817708799999998</v>
+      </c>
+      <c r="D864">
+        <v>4.3291474000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D761">
-    <sortCondition ref="A1:A761"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A835:A866">
+    <sortCondition ref="A835:A866"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
